--- a/FlightLogs_2025.xlsx
+++ b/FlightLogs_2025.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9990" activeTab="3"/>
+    <workbookView windowWidth="26175" windowHeight="11955" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">JAN!$A$1:$T$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FEB!$A$1:$T$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">MAR!$A$1:$T$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">APR!$A$1:$T$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">APR!$A$1:$T$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">MAY!$A$1:$T$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">JUN!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">JUL!$A$1:$T$33</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="387">
   <si>
     <t>DoF</t>
   </si>
@@ -202,6 +201,15 @@
   </si>
   <si>
     <t>ENGINE FAILURE HOVER+T/O;RUNNING LANDING</t>
+  </si>
+  <si>
+    <t>238+308</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>L710</t>
   </si>
   <si>
     <t>Day</t>
@@ -1202,16 +1210,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="[h]:mm"/>
     <numFmt numFmtId="177" formatCode="[hh]:mm"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="181" formatCode="[h]:mm"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,29 +1246,88 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="4"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="2"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1271,7 +1338,23 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,22 +1367,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1308,60 +1384,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1386,13 +1409,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,43 +1541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,85 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,19 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,11 +1685,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,13 +1733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,187 +1774,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1918,13 +1941,13 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1933,13 +1956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1951,7 +1974,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,13 +1986,13 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,13 +2001,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2049,7 +2072,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="Table5" ref="A1:T12" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="A1:T12" totalsRowCount="1">
   <autoFilter ref="A1:T11">
     <filterColumn colId="0">
       <filters>
@@ -2102,7 +2125,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" displayName="Table14" ref="A1:T33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14" displayName="Table14" ref="A1:T33" totalsRowCount="1">
   <autoFilter ref="A1:T32">
     <filterColumn colId="0">
       <filters>
@@ -2155,7 +2178,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" displayName="Table15" ref="A1:T32" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table15" displayName="Table15" ref="A1:T32" totalsRowCount="1">
   <autoFilter ref="A1:T31">
     <filterColumn colId="0">
       <filters>
@@ -2208,7 +2231,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" displayName="Table16" ref="A1:T33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16" displayName="Table16" ref="A1:T33" totalsRowCount="1">
   <autoFilter ref="A1:T32">
     <filterColumn colId="0">
       <filters>
@@ -2261,7 +2284,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" displayName="Table6" ref="A1:T8" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A1:T8" totalsRowCount="1">
   <autoFilter ref="A1:T7">
     <filterColumn colId="0">
       <filters>
@@ -2314,7 +2337,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" displayName="Table8" ref="A1:T6" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table8" displayName="Table8" ref="A1:T6" totalsRowCount="1">
   <autoFilter ref="A1:T5">
     <filterColumn colId="0">
       <filters>
@@ -2367,8 +2390,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" displayName="Table1" ref="A1:T23" totalsRowCount="1">
-  <autoFilter ref="A1:T22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1" displayName="Table1" ref="A1:T7" totalsRowCount="1">
+  <autoFilter ref="A1:T6"/>
   <tableColumns count="20">
     <tableColumn id="1" name="DoF" totalsRowLabel="Summary"/>
     <tableColumn id="2" name="Mission"/>
@@ -2414,7 +2437,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" displayName="Table9" ref="A1:T33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table9" displayName="Table9" ref="A1:T33" totalsRowCount="1">
   <autoFilter ref="A1:T32"/>
   <tableColumns count="20">
     <tableColumn id="1" name="DoF" totalsRowLabel="Summary"/>
@@ -2461,7 +2484,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" displayName="Table10" ref="A1:T32" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table10" displayName="Table10" ref="A1:T32" totalsRowCount="1">
   <autoFilter ref="A1:T31">
     <filterColumn colId="0">
       <filters>
@@ -2514,7 +2537,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" displayName="Table11" ref="A1:T33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table11" displayName="Table11" ref="A1:T33" totalsRowCount="1">
   <autoFilter ref="A1:T32">
     <filterColumn colId="0">
       <filters>
@@ -2567,7 +2590,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" displayName="Table12" ref="A1:T33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table12" displayName="Table12" ref="A1:T33" totalsRowCount="1">
   <autoFilter ref="A1:T32">
     <filterColumn colId="0">
       <filters>
@@ -2620,7 +2643,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" displayName="Table13" ref="A1:T32" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table13" displayName="Table13" ref="A1:T32" totalsRowCount="1">
   <autoFilter ref="A1:T31">
     <filterColumn colId="0">
       <filters>
@@ -2890,33 +2913,33 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="29.25" spans="1:23">
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:23">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="15" outlineLevel="1" spans="1:23">
+    <row r="2" ht="15.75" outlineLevel="1" spans="1:23">
       <c r="A2" s="15">
         <v>45665</v>
       </c>
@@ -3089,11 +3112,11 @@
       </c>
       <c r="K3" s="21">
         <f>MOD(JAN!J3-JAN!I3,1)</f>
-        <v>0.0305555555555556</v>
+        <v>0.030555555555556</v>
       </c>
       <c r="L3" s="21">
         <f>IF(JAN!I3&lt;JAN!V3,MIN(JAN!V3-JAN!I3,JAN!K3),0)</f>
-        <v>0.0305555555555556</v>
+        <v>0.030555555555556</v>
       </c>
       <c r="M3" s="21">
         <f>JAN!K3-JAN!L3</f>
@@ -3154,11 +3177,11 @@
       </c>
       <c r="K4" s="4">
         <f>MOD(JAN!J4-JAN!I4,1)</f>
-        <v>0.0145833333333333</v>
+        <v>0.014583333333333</v>
       </c>
       <c r="L4" s="4">
         <f>IF(JAN!I4&lt;JAN!V4,MIN(JAN!V4-JAN!I4,JAN!K4),0)</f>
-        <v>0.0145833333333333</v>
+        <v>0.014583333333333</v>
       </c>
       <c r="M4" s="4">
         <f>JAN!K4-JAN!L4</f>
@@ -3219,11 +3242,11 @@
       </c>
       <c r="K5" s="4">
         <f>MOD(JAN!J5-JAN!I5,1)</f>
-        <v>0.0520833333333334</v>
+        <v>0.052083333333333</v>
       </c>
       <c r="L5" s="4">
         <f>IF(JAN!I5&lt;JAN!V5,MIN(JAN!V5-JAN!I5,JAN!K5),0)</f>
-        <v>0.0520833333333334</v>
+        <v>0.052083333333333</v>
       </c>
       <c r="M5" s="4">
         <f>JAN!K5-JAN!L5</f>
@@ -3291,11 +3314,11 @@
       </c>
       <c r="K6" s="4">
         <f>MOD(JAN!J6-JAN!I6,1)</f>
-        <v>0.0381944444444444</v>
+        <v>0.038194444444445</v>
       </c>
       <c r="L6" s="4">
         <f>IF(JAN!I6&lt;JAN!V6,MIN(JAN!V6-JAN!I6,JAN!K6),0)</f>
-        <v>0.0381944444444444</v>
+        <v>0.038194444444445</v>
       </c>
       <c r="M6" s="4">
         <f>JAN!K6-JAN!L6</f>
@@ -3360,11 +3383,11 @@
       </c>
       <c r="K7" s="4">
         <f>MOD(JAN!J7-JAN!I7,1)</f>
-        <v>0.0381944444444444</v>
+        <v>0.038194444444444</v>
       </c>
       <c r="L7" s="4">
         <f>IF(JAN!I7&lt;JAN!V7,MIN(JAN!V7-JAN!I7,JAN!K7),0)</f>
-        <v>0.0381944444444444</v>
+        <v>0.038194444444444</v>
       </c>
       <c r="M7" s="4">
         <f>JAN!K7-JAN!L7</f>
@@ -3432,11 +3455,11 @@
       </c>
       <c r="K8" s="4">
         <f>MOD(JAN!J8-JAN!I8,1)</f>
-        <v>0.0486111111111112</v>
+        <v>0.048611111111111</v>
       </c>
       <c r="L8" s="4">
         <f>IF(JAN!I8&lt;JAN!V8,MIN(JAN!V8-JAN!I8,JAN!K8),0)</f>
-        <v>0.0486111111111112</v>
+        <v>0.048611111111111</v>
       </c>
       <c r="M8" s="4">
         <f>JAN!K8-JAN!L8</f>
@@ -3501,7 +3524,7 @@
       </c>
       <c r="K9" s="4">
         <f>MOD(JAN!J9-JAN!I9,1)</f>
-        <v>0.076388888888889</v>
+        <v>0.0763888888888891</v>
       </c>
       <c r="L9" s="4">
         <f>IF(JAN!I9&lt;V9,MIN(JAN!V9-JAN!I9,JAN!K9),0)</f>
@@ -3509,11 +3532,11 @@
       </c>
       <c r="M9" s="4">
         <f>JAN!K9-JAN!L9</f>
-        <v>0.076388888888889</v>
+        <v>0.0763888888888891</v>
       </c>
       <c r="N9" s="4">
         <f>JAN!K9-JAN!L9</f>
-        <v>0.076388888888889</v>
+        <v>0.0763888888888891</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -3566,11 +3589,11 @@
       </c>
       <c r="K10" s="4">
         <f>MOD(JAN!J10-JAN!I10,1)</f>
-        <v>0.0777777777777778</v>
+        <v>0.077777777777778</v>
       </c>
       <c r="L10" s="4">
         <f>IF(JAN!I10&lt;JAN!V9,MIN(JAN!V9-JAN!I10,JAN!K10),0)</f>
-        <v>0.0777777777777778</v>
+        <v>0.077777777777778</v>
       </c>
       <c r="M10" s="4">
         <f>JAN!K10-JAN!L10</f>
@@ -3635,11 +3658,11 @@
       </c>
       <c r="K11" s="4">
         <f>MOD(JAN!J11-JAN!I11,1)</f>
-        <v>0.0694444444444444</v>
+        <v>0.069444444444444</v>
       </c>
       <c r="L11" s="4">
         <f>IF(JAN!I11&lt;JAN!V11,MIN(JAN!V11-JAN!I11,JAN!K11),0)</f>
-        <v>0.0694444444444444</v>
+        <v>0.069444444444444</v>
       </c>
       <c r="M11" s="4">
         <f>JAN!K11-JAN!L11</f>
@@ -3685,11 +3708,11 @@
       </c>
       <c r="M12" s="4">
         <f>SUM(Table5[Night Duration])</f>
-        <v>0.076388888888889</v>
+        <v>0.0763888888888891</v>
       </c>
       <c r="N12" s="4">
         <f>SUM(Table5[NVG Duration])</f>
-        <v>0.076388888888889</v>
+        <v>0.0763888888888891</v>
       </c>
       <c r="O12" s="4">
         <f>SUM(Table5[Simulated IFR])</f>
@@ -3715,7 +3738,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3732,30 +3755,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -5053,7 +5076,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5070,30 +5093,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -6353,7 +6376,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6370,30 +6393,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -7691,7 +7714,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7705,32 +7728,31 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.203125" style="1"/>
-    <col min="2" max="2" width="19.6953125" style="1"/>
-    <col min="3" max="3" width="18.03125" style="1"/>
-    <col min="4" max="4" width="20.03125" style="1"/>
-    <col min="5" max="5" width="19.2734375" style="1"/>
-    <col min="6" max="6" width="24.3359375" style="1"/>
-    <col min="7" max="7" width="20.875" style="1"/>
-    <col min="8" max="8" width="20.8046875" style="1"/>
-    <col min="9" max="9" width="20.5234375" style="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.2333333333333" style="1"/>
+    <col min="2" max="2" width="19.64" style="1"/>
+    <col min="3" max="3" width="18.0266666666667" style="1"/>
+    <col min="4" max="4" width="20.04" style="1"/>
+    <col min="5" max="5" width="19.2333333333333" style="1"/>
+    <col min="6" max="6" width="24.3466666666667" style="1"/>
+    <col min="7" max="8" width="20.8466666666667" style="1"/>
+    <col min="9" max="9" width="20.58" style="1"/>
+    <col min="10" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -7739,7 +7761,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="4">
         <f>SUM(Table5[[#Totals],[Day Duration]],Table6[[#Totals],[Day Duration]],Table8[[#Totals],[Day Duration]],Table1[[#Totals],[Day Duration]],Table9[[#Totals],[Day Duration]],Table10[[#Totals],[Day Duration]],Table11[[#Totals],[Day Duration]],Table12[[#Totals],[Day Duration]],Table13[[#Totals],[Day Duration]],Table14[[#Totals],[Day Duration]],Table15[[#Totals],[Day Duration]],Table16[[#Totals],[Day Duration]])</f>
-        <v>0.8375</v>
+        <v>0.837499999999998</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(Table5[[#Totals],[Simulated IFR]],Table5[[#Totals],[Real IFR]],Table6[[#Totals],[Simulated IFR]],Table6[[#Totals],[Real IFR]],Table8[[#Totals],[Simulated IFR]],Table8[[#Totals],[Real IFR]],Table1[[#Totals],[Simulated IFR]],Table1[[#Totals],[Real IFR]],Table9[[#Totals],[Simulated IFR]],Table9[[#Totals],[Real IFR]],Table10[[#Totals],[Simulated IFR]],Table10[[#Totals],[Simulated IFR]],Table11[[#Totals],[Simulated IFR]],Table11[[#Totals],[Real IFR]],Table12[[#Totals],[Simulated IFR]],Table12[[#Totals],[Real IFR]],Table13[[#Totals],[Simulated IFR]],Table13[[#Totals],[Real IFR]],Table14[[#Totals],[Simulated IFR]],Table14[[#Totals],[Real IFR]],Table15[[#Totals],[Simulated IFR]],Table15[[#Totals],[Real IFR]],Table16[[#Totals],[Real IFR]])</f>
@@ -7747,29 +7769,29 @@
       </c>
       <c r="C3" s="4">
         <f>SUM(Table5[[#Totals],[Night Duration]],Table6[[#Totals],[Night Duration]],Table8[[#Totals],[Night Duration]],Table1[[#Totals],[Night Duration]],Table9[[#Totals],[Night Duration]],Table10[[#Totals],[Night Duration]],Table11[[#Totals],[Night Duration]],Table12[[#Totals],[Night Duration]],Table13[[#Totals],[Night Duration]],Table14[[#Totals],[Night Duration]],Table15[[#Totals],[Night Duration]],Table16[[#Totals],[Night Duration]])</f>
-        <v>0.165972222222222</v>
+        <v>0.381944444444444</v>
       </c>
       <c r="D3" s="4">
         <f>SUM(Table5[[#Totals],[NVG Duration]],Table6[[#Totals],[NVG Duration]],Table8[[#Totals],[NVG Duration]],Table1[[#Totals],[NVG Duration]],Table9[[#Totals],[NVG Duration]],Table10[[#Totals],[NVG Duration]],Table11[[#Totals],[NVG Duration]],Table12[[#Totals],[NVG Duration]],Table13[[#Totals],[NVG Duration]],Table14[[#Totals],[NVG Duration]],Table15[[#Totals],[NVG Duration]],Table16[[#Totals],[NVG Duration]])</f>
-        <v>0.165972222222222</v>
+        <v>0.381944444444444</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2">
         <f>SUM(Table5[[#Totals],[Flight Duration]],Table6[[#Totals],[Flight Duration]],Table8[[#Totals],[Flight Duration]],Table1[[#Totals],[Flight Duration]],Table9[[#Totals],[Flight Duration]],Table10[[#Totals],[Flight Duration]],Table11[[#Totals],[Flight Duration]],Table12[[#Totals],[Flight Duration]],Table13[[#Totals],[Flight Duration]],Table14[[#Totals],[Flight Duration]],Table15[[#Totals],[Flight Duration]],Table16[[#Totals],[Flight Duration]])</f>
-        <v>1.00347222222222</v>
+        <v>1.21944444444444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2">
         <f>Past!A2+B5</f>
-        <v>28.05</v>
+        <v>28.2659722222222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7778,16 +7800,16 @@
       </c>
       <c r="B7" s="2">
         <f>Past!G2+B3</f>
-        <v>2.63472222222222</v>
+        <v>2.63472222222223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <f>Past!E2+B9</f>
-        <v>2.30277777777778</v>
+        <v>2.51875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7796,16 +7818,16 @@
       </c>
       <c r="B9" s="2">
         <f>Past!F2+D3</f>
-        <v>2.01041666666667</v>
+        <v>2.22638888888888</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2">
         <f>B6-B13</f>
-        <v>24.8756944444444</v>
+        <v>25.0916666666667</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -7815,12 +7837,12 @@
       </c>
       <c r="B11" s="2">
         <f>Past!D2+B5</f>
-        <v>22.8930555555556</v>
+        <v>23.1090277777777</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2">
         <f>Past!C2</f>
@@ -7829,7 +7851,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2">
         <f>Past!B2</f>
@@ -7846,7 +7868,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7856,25 +7878,25 @@
   <sheetPr/>
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.8515625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.9133333333333" customWidth="1"/>
+    <col min="2" max="3" width="9.14666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7882,10 +7904,10 @@
         <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7893,10 +7915,10 @@
         <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7904,10 +7926,10 @@
         <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7915,10 +7937,10 @@
         <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7926,10 +7948,10 @@
         <v>45662</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7937,10 +7959,10 @@
         <v>45663</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7948,10 +7970,10 @@
         <v>45664</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7959,10 +7981,10 @@
         <v>45665</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7970,10 +7992,10 @@
         <v>45666</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7981,10 +8003,10 @@
         <v>45667</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7992,10 +8014,10 @@
         <v>45668</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8003,10 +8025,10 @@
         <v>45669</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8014,10 +8036,10 @@
         <v>45670</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8025,10 +8047,10 @@
         <v>45671</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8036,10 +8058,10 @@
         <v>45672</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8047,10 +8069,10 @@
         <v>45673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8058,10 +8080,10 @@
         <v>45674</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8069,10 +8091,10 @@
         <v>45675</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8080,10 +8102,10 @@
         <v>45676</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8091,10 +8113,10 @@
         <v>45677</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8102,10 +8124,10 @@
         <v>45678</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8113,10 +8135,10 @@
         <v>45679</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8124,10 +8146,10 @@
         <v>45680</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8135,10 +8157,10 @@
         <v>45681</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8146,10 +8168,10 @@
         <v>45682</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8157,10 +8179,10 @@
         <v>45683</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8168,10 +8190,10 @@
         <v>45684</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8179,10 +8201,10 @@
         <v>45685</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8190,10 +8212,10 @@
         <v>45686</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8201,10 +8223,10 @@
         <v>45687</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8212,10 +8234,10 @@
         <v>45688</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8223,10 +8245,10 @@
         <v>45689</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8234,10 +8256,10 @@
         <v>45690</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8245,10 +8267,10 @@
         <v>45691</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8256,10 +8278,10 @@
         <v>45692</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8267,10 +8289,10 @@
         <v>45693</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8278,10 +8300,10 @@
         <v>45694</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8289,10 +8311,10 @@
         <v>45695</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8300,10 +8322,10 @@
         <v>45696</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8311,10 +8333,10 @@
         <v>45697</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8322,10 +8344,10 @@
         <v>45698</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8333,10 +8355,10 @@
         <v>45699</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8344,10 +8366,10 @@
         <v>45700</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8355,10 +8377,10 @@
         <v>45701</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8366,10 +8388,10 @@
         <v>45702</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8377,10 +8399,10 @@
         <v>45703</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8388,10 +8410,10 @@
         <v>45704</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8399,10 +8421,10 @@
         <v>45705</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8410,10 +8432,10 @@
         <v>45706</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8421,10 +8443,10 @@
         <v>45707</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8432,10 +8454,10 @@
         <v>45708</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8443,10 +8465,10 @@
         <v>45709</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8454,10 +8476,10 @@
         <v>45710</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8465,10 +8487,10 @@
         <v>45711</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8476,10 +8498,10 @@
         <v>45712</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8487,10 +8509,10 @@
         <v>45713</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8498,10 +8520,10 @@
         <v>45714</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8509,10 +8531,10 @@
         <v>45715</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8520,10 +8542,10 @@
         <v>45716</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8531,10 +8553,10 @@
         <v>45717</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8542,10 +8564,10 @@
         <v>45718</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8553,10 +8575,10 @@
         <v>45719</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8564,10 +8586,10 @@
         <v>45720</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8575,10 +8597,10 @@
         <v>45721</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8586,10 +8608,10 @@
         <v>45722</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8597,10 +8619,10 @@
         <v>45723</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8608,10 +8630,10 @@
         <v>45724</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8619,10 +8641,10 @@
         <v>45725</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8630,10 +8652,10 @@
         <v>45726</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8641,10 +8663,10 @@
         <v>45727</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8652,10 +8674,10 @@
         <v>45728</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8663,10 +8685,10 @@
         <v>45729</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8674,10 +8696,10 @@
         <v>45730</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8685,10 +8707,10 @@
         <v>45731</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8696,10 +8718,10 @@
         <v>45732</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8707,10 +8729,10 @@
         <v>45733</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8718,10 +8740,10 @@
         <v>45734</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8729,10 +8751,10 @@
         <v>45735</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8740,10 +8762,10 @@
         <v>45736</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8751,10 +8773,10 @@
         <v>45737</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8762,10 +8784,10 @@
         <v>45738</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8773,10 +8795,10 @@
         <v>45739</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8784,10 +8806,10 @@
         <v>45740</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8795,10 +8817,10 @@
         <v>45741</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8806,10 +8828,10 @@
         <v>45742</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8817,10 +8839,10 @@
         <v>45743</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8828,10 +8850,10 @@
         <v>45744</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8839,10 +8861,10 @@
         <v>45745</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8850,10 +8872,10 @@
         <v>45746</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8861,10 +8883,10 @@
         <v>45747</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8872,10 +8894,10 @@
         <v>45748</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8883,10 +8905,10 @@
         <v>45749</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8894,10 +8916,10 @@
         <v>45750</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8905,10 +8927,10 @@
         <v>45751</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8916,10 +8938,10 @@
         <v>45752</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8927,10 +8949,10 @@
         <v>45753</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8938,10 +8960,10 @@
         <v>45754</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8949,10 +8971,10 @@
         <v>45755</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8960,10 +8982,10 @@
         <v>45756</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8971,10 +8993,10 @@
         <v>45757</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8982,10 +9004,10 @@
         <v>45758</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8993,10 +9015,10 @@
         <v>45759</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9004,10 +9026,10 @@
         <v>45760</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9015,10 +9037,10 @@
         <v>45761</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9026,10 +9048,10 @@
         <v>45762</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9037,10 +9059,10 @@
         <v>45763</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9048,10 +9070,10 @@
         <v>45764</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9059,10 +9081,10 @@
         <v>45765</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9070,10 +9092,10 @@
         <v>45766</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9081,10 +9103,10 @@
         <v>45767</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9092,10 +9114,10 @@
         <v>45768</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9103,10 +9125,10 @@
         <v>45769</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9114,10 +9136,10 @@
         <v>45770</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9125,10 +9147,10 @@
         <v>45771</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9136,10 +9158,10 @@
         <v>45772</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9147,10 +9169,10 @@
         <v>45773</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9158,10 +9180,10 @@
         <v>45774</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9169,10 +9191,10 @@
         <v>45775</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9180,10 +9202,10 @@
         <v>45776</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9191,10 +9213,10 @@
         <v>45777</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9202,10 +9224,10 @@
         <v>45778</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9213,10 +9235,10 @@
         <v>45779</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9224,10 +9246,10 @@
         <v>45780</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9235,10 +9257,10 @@
         <v>45781</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9246,10 +9268,10 @@
         <v>45782</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9257,10 +9279,10 @@
         <v>45783</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9268,10 +9290,10 @@
         <v>45784</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9279,10 +9301,10 @@
         <v>45785</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9290,10 +9312,10 @@
         <v>45786</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9301,10 +9323,10 @@
         <v>45787</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9312,10 +9334,10 @@
         <v>45788</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9323,10 +9345,10 @@
         <v>45789</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9334,10 +9356,10 @@
         <v>45790</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9345,10 +9367,10 @@
         <v>45791</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9356,10 +9378,10 @@
         <v>45792</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9367,10 +9389,10 @@
         <v>45793</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9378,10 +9400,10 @@
         <v>45794</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9389,10 +9411,10 @@
         <v>45795</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9400,10 +9422,10 @@
         <v>45796</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9411,10 +9433,10 @@
         <v>45797</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9422,10 +9444,10 @@
         <v>45798</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9433,10 +9455,10 @@
         <v>45799</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9444,10 +9466,10 @@
         <v>45800</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9455,10 +9477,10 @@
         <v>45801</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9466,10 +9488,10 @@
         <v>45802</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9477,10 +9499,10 @@
         <v>45803</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9488,10 +9510,10 @@
         <v>45804</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9499,10 +9521,10 @@
         <v>45805</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9510,10 +9532,10 @@
         <v>45806</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9521,10 +9543,10 @@
         <v>45807</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9532,10 +9554,10 @@
         <v>45808</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9543,10 +9565,10 @@
         <v>45809</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9554,10 +9576,10 @@
         <v>45810</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9565,10 +9587,10 @@
         <v>45811</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9576,10 +9598,10 @@
         <v>45812</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -9587,10 +9609,10 @@
         <v>45813</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -9598,10 +9620,10 @@
         <v>45814</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -9609,10 +9631,10 @@
         <v>45815</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -9620,10 +9642,10 @@
         <v>45816</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -9631,10 +9653,10 @@
         <v>45817</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -9642,10 +9664,10 @@
         <v>45818</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -9653,10 +9675,10 @@
         <v>45819</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -9664,10 +9686,10 @@
         <v>45820</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -9675,10 +9697,10 @@
         <v>45821</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -9686,10 +9708,10 @@
         <v>45822</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -9697,10 +9719,10 @@
         <v>45823</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9708,10 +9730,10 @@
         <v>45824</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9719,10 +9741,10 @@
         <v>45825</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9730,10 +9752,10 @@
         <v>45826</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9741,10 +9763,10 @@
         <v>45827</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9752,10 +9774,10 @@
         <v>45828</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -9763,10 +9785,10 @@
         <v>45829</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9774,10 +9796,10 @@
         <v>45830</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9785,10 +9807,10 @@
         <v>45831</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9796,10 +9818,10 @@
         <v>45832</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -9807,10 +9829,10 @@
         <v>45833</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -9818,10 +9840,10 @@
         <v>45834</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -9829,10 +9851,10 @@
         <v>45835</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9840,10 +9862,10 @@
         <v>45836</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -9851,10 +9873,10 @@
         <v>45837</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -9862,10 +9884,10 @@
         <v>45838</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -9873,10 +9895,10 @@
         <v>45839</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9884,10 +9906,10 @@
         <v>45840</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -9895,10 +9917,10 @@
         <v>45841</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9906,10 +9928,10 @@
         <v>45842</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9917,10 +9939,10 @@
         <v>45843</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -9928,10 +9950,10 @@
         <v>45844</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -9939,10 +9961,10 @@
         <v>45845</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -9950,10 +9972,10 @@
         <v>45846</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -9961,10 +9983,10 @@
         <v>45847</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -9972,10 +9994,10 @@
         <v>45848</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -9983,10 +10005,10 @@
         <v>45849</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -9994,10 +10016,10 @@
         <v>45850</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -10005,10 +10027,10 @@
         <v>45851</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -10016,10 +10038,10 @@
         <v>45852</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -10027,10 +10049,10 @@
         <v>45853</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -10038,10 +10060,10 @@
         <v>45854</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -10049,10 +10071,10 @@
         <v>45855</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -10060,10 +10082,10 @@
         <v>45856</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -10071,10 +10093,10 @@
         <v>45857</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -10082,10 +10104,10 @@
         <v>45858</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -10093,10 +10115,10 @@
         <v>45859</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -10104,10 +10126,10 @@
         <v>45860</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -10115,10 +10137,10 @@
         <v>45861</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -10126,10 +10148,10 @@
         <v>45862</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -10137,10 +10159,10 @@
         <v>45863</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -10148,10 +10170,10 @@
         <v>45864</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10159,10 +10181,10 @@
         <v>45865</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10170,10 +10192,10 @@
         <v>45866</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10181,10 +10203,10 @@
         <v>45867</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10192,10 +10214,10 @@
         <v>45868</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10203,10 +10225,10 @@
         <v>45869</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10214,10 +10236,10 @@
         <v>45870</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10225,10 +10247,10 @@
         <v>45871</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -10236,10 +10258,10 @@
         <v>45872</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10247,10 +10269,10 @@
         <v>45873</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -10258,10 +10280,10 @@
         <v>45874</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -10269,10 +10291,10 @@
         <v>45875</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10280,10 +10302,10 @@
         <v>45876</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -10291,10 +10313,10 @@
         <v>45877</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10302,10 +10324,10 @@
         <v>45878</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10313,10 +10335,10 @@
         <v>45879</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10324,10 +10346,10 @@
         <v>45880</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10335,10 +10357,10 @@
         <v>45881</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10346,10 +10368,10 @@
         <v>45882</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10357,10 +10379,10 @@
         <v>45883</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10368,10 +10390,10 @@
         <v>45884</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10379,10 +10401,10 @@
         <v>45885</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10390,10 +10412,10 @@
         <v>45886</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10401,10 +10423,10 @@
         <v>45887</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -10412,10 +10434,10 @@
         <v>45888</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -10423,10 +10445,10 @@
         <v>45889</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -10434,10 +10456,10 @@
         <v>45890</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -10445,10 +10467,10 @@
         <v>45891</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -10456,10 +10478,10 @@
         <v>45892</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -10467,10 +10489,10 @@
         <v>45893</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -10478,10 +10500,10 @@
         <v>45894</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -10489,10 +10511,10 @@
         <v>45895</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -10500,10 +10522,10 @@
         <v>45896</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -10511,10 +10533,10 @@
         <v>45897</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -10522,10 +10544,10 @@
         <v>45898</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -10533,10 +10555,10 @@
         <v>45899</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -10544,10 +10566,10 @@
         <v>45900</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -10555,10 +10577,10 @@
         <v>45901</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -10566,10 +10588,10 @@
         <v>45902</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -10577,10 +10599,10 @@
         <v>45903</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -10588,10 +10610,10 @@
         <v>45904</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -10599,10 +10621,10 @@
         <v>45905</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -10610,10 +10632,10 @@
         <v>45906</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -10621,10 +10643,10 @@
         <v>45907</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -10632,10 +10654,10 @@
         <v>45908</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -10643,10 +10665,10 @@
         <v>45909</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -10654,10 +10676,10 @@
         <v>45910</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -10665,10 +10687,10 @@
         <v>45911</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -10676,10 +10698,10 @@
         <v>45912</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -10687,10 +10709,10 @@
         <v>45913</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -10698,10 +10720,10 @@
         <v>45914</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -10709,10 +10731,10 @@
         <v>45915</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -10720,10 +10742,10 @@
         <v>45916</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -10731,10 +10753,10 @@
         <v>45917</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -10742,10 +10764,10 @@
         <v>45918</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -10753,10 +10775,10 @@
         <v>45919</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -10764,10 +10786,10 @@
         <v>45920</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -10775,10 +10797,10 @@
         <v>45921</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -10786,10 +10808,10 @@
         <v>45922</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -10797,10 +10819,10 @@
         <v>45923</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -10808,10 +10830,10 @@
         <v>45924</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -10819,10 +10841,10 @@
         <v>45925</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -10830,10 +10852,10 @@
         <v>45926</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -10841,10 +10863,10 @@
         <v>45927</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -10852,10 +10874,10 @@
         <v>45928</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -10863,10 +10885,10 @@
         <v>45929</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -10874,10 +10896,10 @@
         <v>45930</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -10885,10 +10907,10 @@
         <v>45931</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -10896,10 +10918,10 @@
         <v>45932</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -10907,10 +10929,10 @@
         <v>45933</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -10918,10 +10940,10 @@
         <v>45934</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -10929,10 +10951,10 @@
         <v>45935</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10940,10 +10962,10 @@
         <v>45936</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -10951,10 +10973,10 @@
         <v>45937</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -10962,10 +10984,10 @@
         <v>45938</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -10973,10 +10995,10 @@
         <v>45939</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -10984,10 +11006,10 @@
         <v>45940</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -10995,10 +11017,10 @@
         <v>45941</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -11006,10 +11028,10 @@
         <v>45942</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -11017,10 +11039,10 @@
         <v>45943</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -11028,10 +11050,10 @@
         <v>45944</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -11039,10 +11061,10 @@
         <v>45945</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -11050,10 +11072,10 @@
         <v>45946</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -11061,10 +11083,10 @@
         <v>45947</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -11072,10 +11094,10 @@
         <v>45948</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -11083,10 +11105,10 @@
         <v>45949</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -11094,10 +11116,10 @@
         <v>45950</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -11105,10 +11127,10 @@
         <v>45951</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -11116,10 +11138,10 @@
         <v>45952</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -11127,10 +11149,10 @@
         <v>45953</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -11138,10 +11160,10 @@
         <v>45954</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -11149,10 +11171,10 @@
         <v>45955</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -11160,10 +11182,10 @@
         <v>45956</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -11171,10 +11193,10 @@
         <v>45957</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -11182,10 +11204,10 @@
         <v>45958</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -11193,10 +11215,10 @@
         <v>45959</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -11204,10 +11226,10 @@
         <v>45960</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -11215,10 +11237,10 @@
         <v>45961</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -11226,10 +11248,10 @@
         <v>45962</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -11237,10 +11259,10 @@
         <v>45963</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -11248,10 +11270,10 @@
         <v>45964</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -11259,10 +11281,10 @@
         <v>45965</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -11270,10 +11292,10 @@
         <v>45966</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -11281,10 +11303,10 @@
         <v>45967</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -11292,10 +11314,10 @@
         <v>45968</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -11303,10 +11325,10 @@
         <v>45969</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -11314,10 +11336,10 @@
         <v>45970</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11325,10 +11347,10 @@
         <v>45971</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -11336,10 +11358,10 @@
         <v>45972</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -11347,10 +11369,10 @@
         <v>45973</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -11358,10 +11380,10 @@
         <v>45974</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -11369,10 +11391,10 @@
         <v>45975</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -11380,10 +11402,10 @@
         <v>45976</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -11391,10 +11413,10 @@
         <v>45977</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -11402,10 +11424,10 @@
         <v>45978</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -11413,10 +11435,10 @@
         <v>45979</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -11424,10 +11446,10 @@
         <v>45980</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -11435,10 +11457,10 @@
         <v>45981</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -11446,10 +11468,10 @@
         <v>45982</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -11457,10 +11479,10 @@
         <v>45983</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -11468,10 +11490,10 @@
         <v>45984</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -11479,10 +11501,10 @@
         <v>45985</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -11490,10 +11512,10 @@
         <v>45986</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -11501,10 +11523,10 @@
         <v>45987</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -11512,10 +11534,10 @@
         <v>45988</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -11523,10 +11545,10 @@
         <v>45989</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -11534,10 +11556,10 @@
         <v>45990</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -11545,10 +11567,10 @@
         <v>45991</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -11556,10 +11578,10 @@
         <v>45992</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -11567,10 +11589,10 @@
         <v>45993</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -11578,10 +11600,10 @@
         <v>45994</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -11589,10 +11611,10 @@
         <v>45995</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -11600,10 +11622,10 @@
         <v>45996</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -11611,10 +11633,10 @@
         <v>45997</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -11622,10 +11644,10 @@
         <v>45998</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -11633,10 +11655,10 @@
         <v>45999</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -11644,10 +11666,10 @@
         <v>46000</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -11655,10 +11677,10 @@
         <v>46001</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -11666,10 +11688,10 @@
         <v>46002</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -11677,10 +11699,10 @@
         <v>46003</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -11688,10 +11710,10 @@
         <v>46004</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -11699,10 +11721,10 @@
         <v>46005</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -11710,10 +11732,10 @@
         <v>46006</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -11721,10 +11743,10 @@
         <v>46007</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -11732,10 +11754,10 @@
         <v>46008</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -11743,10 +11765,10 @@
         <v>46009</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -11754,10 +11776,10 @@
         <v>46010</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -11765,10 +11787,10 @@
         <v>46011</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -11776,10 +11798,10 @@
         <v>46012</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -11787,10 +11809,10 @@
         <v>46013</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -11798,10 +11820,10 @@
         <v>46014</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -11809,10 +11831,10 @@
         <v>46015</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -11820,10 +11842,10 @@
         <v>46016</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -11831,10 +11853,10 @@
         <v>46017</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -11842,10 +11864,10 @@
         <v>46018</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -11853,10 +11875,10 @@
         <v>46019</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -11864,10 +11886,10 @@
         <v>46020</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -11875,10 +11897,10 @@
         <v>46021</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -11886,15 +11908,15 @@
         <v>46022</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -11908,27 +11930,27 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14666666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.8515625" style="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.81333333333333" style="1"/>
+    <col min="2" max="16384" width="9.14666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>37</v>
@@ -12424,7 +12446,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -12438,33 +12460,33 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="28.5" spans="1:23">
+    <row r="1" s="5" customFormat="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12637,7 +12659,7 @@
       </c>
       <c r="K3" s="4">
         <f>MOD(FEB!J3-FEB!I3,1)</f>
-        <v>0.0256944444444445</v>
+        <v>0.025694444444444</v>
       </c>
       <c r="L3" s="4">
         <f>IF(FEB!I3&lt;FEB!V3,MIN(FEB!V3-FEB!I3,FEB!K3),0)</f>
@@ -12645,11 +12667,11 @@
       </c>
       <c r="M3" s="4">
         <f>FEB!K3-FEB!L3</f>
-        <v>0.0256944444444445</v>
+        <v>0.025694444444444</v>
       </c>
       <c r="N3" s="4">
         <f>FEB!K3-FEB!L3</f>
-        <v>0.0256944444444445</v>
+        <v>0.025694444444444</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
@@ -12709,11 +12731,11 @@
       </c>
       <c r="K4" s="4">
         <f>MOD(FEB!J4-FEB!I4,1)</f>
-        <v>0.0604166666666666</v>
+        <v>0.060416666666666</v>
       </c>
       <c r="L4" s="4">
         <f>IF(FEB!I4&lt;FEB!V4,MIN(FEB!V4-FEB!I4,FEB!K4),0)</f>
-        <v>0.0604166666666666</v>
+        <v>0.060416666666666</v>
       </c>
       <c r="M4" s="4">
         <f>FEB!K4-FEB!L4</f>
@@ -12779,11 +12801,11 @@
       </c>
       <c r="K5" s="4">
         <f>MOD(FEB!J5-FEB!I5,1)</f>
-        <v>0.0458333333333334</v>
+        <v>0.0458333333333341</v>
       </c>
       <c r="L5" s="4">
         <f>IF(FEB!I5&lt;FEB!V5,MIN(FEB!V5-FEB!I5,FEB!K5),0)</f>
-        <v>0.0458333333333334</v>
+        <v>0.0458333333333341</v>
       </c>
       <c r="M5" s="4">
         <f>FEB!K5-FEB!L5</f>
@@ -12849,11 +12871,11 @@
       </c>
       <c r="K6" s="4">
         <f>MOD(FEB!J6-FEB!I6,1)</f>
-        <v>0.0340277777777778</v>
+        <v>0.034027777777778</v>
       </c>
       <c r="L6" s="4">
         <f>IF(FEB!I6&lt;V6,MIN(V6-FEB!I6,FEB!K6),0)</f>
-        <v>0.0340277777777778</v>
+        <v>0.034027777777778</v>
       </c>
       <c r="M6" s="4">
         <f>FEB!K6-FEB!L6</f>
@@ -12968,11 +12990,11 @@
       </c>
       <c r="M8" s="4">
         <f>SUM(Table6[Night Duration])</f>
-        <v>0.0569444444444445</v>
+        <v>0.056944444444444</v>
       </c>
       <c r="N8" s="4">
         <f>SUM(Table6[NVG Duration])</f>
-        <v>0.0569444444444445</v>
+        <v>0.056944444444444</v>
       </c>
       <c r="O8" s="4">
         <f>SUM(Table6[Simulated IFR])</f>
@@ -12998,7 +13020,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -13015,33 +13037,33 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="28.5" spans="1:23">
+    <row r="1" s="5" customFormat="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13142,11 +13164,11 @@
       </c>
       <c r="K2" s="4">
         <f>MOD(MAR!J2-MAR!I2,1)</f>
-        <v>0.0416666666666666</v>
+        <v>0.041666666666667</v>
       </c>
       <c r="L2" s="4">
         <f>IF(MAR!I2&lt;MAR!V2,MIN(MAR!V2-MAR!I2,MAR!K2),0)</f>
-        <v>0.0416666666666666</v>
+        <v>0.041666666666667</v>
       </c>
       <c r="M2" s="4">
         <f>MAR!K2-MAR!L2</f>
@@ -13216,11 +13238,11 @@
       </c>
       <c r="K3" s="4">
         <f>MOD(MAR!J3-MAR!I3,1)</f>
-        <v>0.0319444444444444</v>
+        <v>0.031944444444444</v>
       </c>
       <c r="L3" s="4">
         <f>IF(MAR!I3&lt;MAR!V3,MIN(MAR!V3-MAR!I3,MAR!K3),0)</f>
-        <v>0.0319444444444444</v>
+        <v>0.031944444444444</v>
       </c>
       <c r="M3" s="4">
         <f>MAR!K3-MAR!L3</f>
@@ -13285,11 +13307,11 @@
       </c>
       <c r="K4" s="4">
         <f>MOD(MAR!J4-MAR!I4,1)</f>
-        <v>0.0430555555555556</v>
+        <v>0.043055555555555</v>
       </c>
       <c r="L4" s="4">
         <f>IF(MAR!I4&lt;MAR!V4,MIN(MAR!V4-MAR!I4,MAR!K4),0)</f>
-        <v>0.0430555555555556</v>
+        <v>0.043055555555555</v>
       </c>
       <c r="M4" s="4">
         <f>MAR!K4-MAR!L4</f>
@@ -13354,11 +13376,11 @@
       </c>
       <c r="K5" s="4">
         <f>MOD(MAR!J5-MAR!I5,1)</f>
-        <v>0.0465277777777778</v>
+        <v>0.046527777777777</v>
       </c>
       <c r="L5" s="4">
         <f>IF(MAR!I5&lt;MAR!V5,MIN(MAR!V5-MAR!I5,MAR!K5),0)</f>
-        <v>0.0465277777777778</v>
+        <v>0.046527777777777</v>
       </c>
       <c r="M5" s="4">
         <f>MAR!K5-MAR!L5</f>
@@ -13396,11 +13418,11 @@
       </c>
       <c r="K6" s="7">
         <f>SUM(Table8[Flight Duration])</f>
-        <v>0.163194444444444</v>
+        <v>0.163194444444443</v>
       </c>
       <c r="L6" s="4">
         <f>SUM(Table8[Day Duration])</f>
-        <v>0.163194444444444</v>
+        <v>0.163194444444443</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(Table8[Night Duration])</f>
@@ -13434,7 +13456,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -13445,36 +13467,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.3125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.046875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.953125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.3733333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="12.1066666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.9733333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -13578,7 +13600,7 @@
       </c>
       <c r="K2" s="4">
         <f>MOD(APR!J2-APR!I2,1)</f>
-        <v>0.0326388888888889</v>
+        <v>0.032638888888889</v>
       </c>
       <c r="L2" s="4">
         <f>IF(APR!I2&lt;APR!V2,MIN(APR!V2-APR!I2,APR!K2),0)</f>
@@ -13586,11 +13608,11 @@
       </c>
       <c r="M2" s="4">
         <f>APR!K2-APR!L2</f>
-        <v>0.0326388888888889</v>
+        <v>0.032638888888889</v>
       </c>
       <c r="N2" s="4">
         <f>APR!K2-APR!L2</f>
-        <v>0.0326388888888889</v>
+        <v>0.032638888888889</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -13650,11 +13672,11 @@
       </c>
       <c r="K3" s="4">
         <f>MOD(APR!J3-APR!I3,1)</f>
-        <v>0.0236111111111111</v>
+        <v>0.023611111111111</v>
       </c>
       <c r="L3" s="4">
         <f>IF(APR!I3&lt;APR!V3,MIN(APR!V3-APR!I3,APR!K3),0)</f>
-        <v>0.0236111111111111</v>
+        <v>0.023611111111111</v>
       </c>
       <c r="M3" s="4">
         <f>APR!K3-APR!L3</f>
@@ -13689,17 +13711,44 @@
         <v>0.222916666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" ht="30" spans="1:23">
       <c r="A4" s="6">
-        <v>45759</v>
+        <v>45761</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.413888888888889</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.454861111111111</v>
       </c>
       <c r="K4" s="4">
         <f>MOD(APR!J4-APR!I4,1)</f>
-        <v>0</v>
+        <v>0.040972222222222</v>
       </c>
       <c r="L4" s="4">
         <f>IF(APR!I4&lt;APR!V4,MIN(APR!V4-APR!I4,APR!K4),0)</f>
-        <v>0</v>
+        <v>0.040972222222222</v>
       </c>
       <c r="M4" s="4">
         <f>APR!K4-APR!L4</f>
@@ -13715,25 +13764,58 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="Q4" s="9">
+        <v>5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>11</v>
+      </c>
       <c r="S4" s="9"/>
+      <c r="T4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="V4" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.806944444444444</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="W4" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.222222222222222</v>
+        <v>0.220138888888889</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="6">
-        <v>45760</v>
+        <v>45763</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="4">
-        <f>MOD(APR!J5-APR!I5,1)</f>
-        <v>0</v>
+        <v>0.102083333333333</v>
       </c>
       <c r="L5" s="4">
         <f>IF(APR!I5&lt;APR!V5,MIN(APR!V5-APR!I5,APR!K5),0)</f>
@@ -13741,11 +13823,11 @@
       </c>
       <c r="M5" s="4">
         <f>APR!K5-APR!L5</f>
-        <v>0</v>
+        <v>0.102083333333333</v>
       </c>
       <c r="N5" s="4">
         <f>APR!K5-APR!L5</f>
-        <v>0</v>
+        <v>0.102083333333333</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -13758,25 +13840,25 @@
       <c r="S5" s="9"/>
       <c r="V5" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.807638888888889</v>
+        <v>0.809722222222222</v>
       </c>
       <c r="W5" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.221527777777778</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:23">
+        <v>0.218055555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="6">
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -13785,32 +13867,31 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7">
-        <v>0.413888888888889</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.454861111111111</v>
+      <c r="I6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K6" s="4">
-        <f>MOD(APR!J6-APR!I6,1)</f>
-        <v>0.0409722222222222</v>
+        <v>0.113888888888889</v>
       </c>
       <c r="L6" s="4">
         <f>IF(APR!I6&lt;APR!V6,MIN(APR!V6-APR!I6,APR!K6),0)</f>
-        <v>0.0409722222222222</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <f>APR!K6-APR!L6</f>
-        <v>0</v>
+        <v>0.113888888888889</v>
       </c>
       <c r="N6" s="4">
         <f>APR!K6-APR!L6</f>
-        <v>0</v>
+        <v>0.113888888888889</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -13819,669 +13900,58 @@
         <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6" s="9">
         <v>11</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="V6" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.808333333333333</v>
+        <v>0.815972222222222</v>
       </c>
       <c r="W6" s="2">
         <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.220138888888889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="6">
-        <v>45762</v>
-      </c>
-      <c r="K7" s="4">
-        <f>MOD(APR!J7-APR!I7,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <f>IF(APR!I7&lt;APR!V7,MIN(APR!V7-APR!I7,APR!K7),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <f>APR!K7-APR!L7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <f>APR!K7-APR!L7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="V7" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.809027777777778</v>
-      </c>
-      <c r="W7" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.219444444444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="6">
-        <v>45763</v>
-      </c>
-      <c r="K8" s="4">
-        <f>MOD(APR!J8-APR!I8,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <f>IF(APR!I8&lt;APR!V8,MIN(APR!V8-APR!I8,APR!K8),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f>APR!K8-APR!L8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f>APR!K8-APR!L8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="V8" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.809722222222222</v>
-      </c>
-      <c r="W8" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.218055555555556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="6">
-        <v>45764</v>
-      </c>
-      <c r="K9" s="4">
-        <f>MOD(APR!J9-APR!I9,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <f>IF(APR!I9&lt;APR!V9,MIN(APR!V9-APR!I9,APR!K9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f>APR!K9-APR!L9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <f>APR!K9-APR!L9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="V9" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.810416666666667</v>
-      </c>
-      <c r="W9" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.217361111111111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="6">
-        <v>45765</v>
-      </c>
-      <c r="K10" s="4">
-        <f>MOD(APR!J10-APR!I10,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <f>IF(APR!I10&lt;APR!V10,MIN(APR!V10-APR!I10,APR!K10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f>APR!K10-APR!L10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <f>APR!K10-APR!L10</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="V10" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="W10" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.216666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="6">
-        <v>45766</v>
-      </c>
-      <c r="K11" s="4">
-        <f>MOD(APR!J11-APR!I11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>IF(APR!I11&lt;APR!V11,MIN(APR!V11-APR!I11,APR!K11),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>APR!K11-APR!L11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>APR!K11-APR!L11</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="V11" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.811805555555556</v>
-      </c>
-      <c r="W11" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.215277777777778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="6">
-        <v>45767</v>
-      </c>
-      <c r="K12" s="4">
-        <f>MOD(APR!J12-APR!I12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>IF(APR!I12&lt;APR!V12,MIN(APR!V12-APR!I12,APR!K12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>APR!K12-APR!L12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>APR!K12-APR!L12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="V12" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="W12" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.214583333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="6">
-        <v>45768</v>
-      </c>
-      <c r="K13" s="4">
-        <f>MOD(APR!J13-APR!I13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <f>IF(APR!I13&lt;APR!V13,MIN(APR!V13-APR!I13,APR!K13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f>APR!K13-APR!L13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f>APR!K13-APR!L13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="V13" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.813194444444444</v>
-      </c>
-      <c r="W13" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.213888888888889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="6">
-        <v>45769</v>
-      </c>
-      <c r="K14" s="4">
-        <f>MOD(APR!J14-APR!I14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f>IF(APR!I14&lt;APR!V14,MIN(APR!V14-APR!I14,APR!K14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>APR!K14-APR!L14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f>APR!K14-APR!L14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="V14" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.813194444444444</v>
-      </c>
-      <c r="W14" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.2125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="6">
-        <v>45770</v>
-      </c>
-      <c r="K15" s="4">
-        <f>MOD(APR!J15-APR!I15,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f>IF(APR!I15&lt;APR!V15,MIN(APR!V15-APR!I15,APR!K15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>APR!K15-APR!L15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <f>APR!K15-APR!L15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="V15" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.813888888888889</v>
-      </c>
-      <c r="W15" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.211805555555556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="6">
-        <v>45771</v>
-      </c>
-      <c r="K16" s="4">
-        <f>MOD(APR!J16-APR!I16,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <f>IF(APR!I16&lt;APR!V16,MIN(APR!V16-APR!I16,APR!K16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f>APR!K16-APR!L16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f>APR!K16-APR!L16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="V16" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.814583333333333</v>
-      </c>
-      <c r="W16" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.211111111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="6">
-        <v>45772</v>
-      </c>
-      <c r="K17" s="4">
-        <f>MOD(APR!J17-APR!I17,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <f>IF(APR!I17&lt;APR!V17,MIN(APR!V17-APR!I17,APR!K17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f>APR!K17-APR!L17</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f>APR!K17-APR!L17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="V17" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.815277777777778</v>
-      </c>
-      <c r="W17" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.210416666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="6">
-        <v>45773</v>
-      </c>
-      <c r="K18" s="4">
-        <f>MOD(APR!J18-APR!I18,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <f>IF(APR!I18&lt;APR!V18,MIN(APR!V18-APR!I18,APR!K18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <f>APR!K18-APR!L18</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <f>APR!K18-APR!L18</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="V18" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.815972222222222</v>
-      </c>
-      <c r="W18" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
         <v>0.209027777777778</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="6">
-        <v>45774</v>
-      </c>
-      <c r="K19" s="4">
-        <f>MOD(APR!J19-APR!I19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <f>IF(APR!I19&lt;APR!V19,MIN(APR!V19-APR!I19,APR!K19),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <f>APR!K19-APR!L19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <f>APR!K19-APR!L19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="V19" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.816666666666667</v>
-      </c>
-      <c r="W19" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.208333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="6">
-        <v>45775</v>
-      </c>
-      <c r="K20" s="4">
-        <f>MOD(APR!J20-APR!I20,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <f>IF(APR!I20&lt;APR!V20,MIN(APR!V20-APR!I20,APR!K20),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <f>APR!K20-APR!L20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <f>APR!K20-APR!L20</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="V20" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.817361111111111</v>
-      </c>
-      <c r="W20" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.207638888888889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="6">
-        <v>45776</v>
-      </c>
-      <c r="K21" s="4">
-        <f>MOD(APR!J21-APR!I21,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <f>IF(APR!I21&lt;APR!V21,MIN(APR!V21-APR!I21,APR!K21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <f>APR!K21-APR!L21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <f>APR!K21-APR!L21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="V21" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.818055555555556</v>
-      </c>
-      <c r="W21" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.206944444444444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="6">
-        <v>45777</v>
-      </c>
-      <c r="K22" s="4">
-        <f>MOD(APR!J22-APR!I22,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <f>IF(APR!I22&lt;APR!V22,MIN(APR!V22-APR!I22,APR!K22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <f>APR!K22-APR!L22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <f>APR!K22-APR!L22</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="V22" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!C:C)+TIME(0,30,0)</f>
-        <v>0.81875</v>
-      </c>
-      <c r="W22" s="2">
-        <f>_xlfn.XLOOKUP(APR!A:A,'SR-SS'!A:A,'SR-SS'!B:B)-TIME(0,30,0)</f>
-        <v>0.20625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="6" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K7" s="7">
         <f>SUM(Table1[Flight Duration])</f>
-        <v>0.0972222222222222</v>
-      </c>
-      <c r="L23" s="7">
+        <v>0.313194444444444</v>
+      </c>
+      <c r="L7" s="7">
         <f>SUM(Table1[Day Duration])</f>
-        <v>0.0645833333333333</v>
-      </c>
-      <c r="M23" s="7">
+        <v>0.064583333333333</v>
+      </c>
+      <c r="M7" s="7">
         <f>SUM(Table1[Night Duration])</f>
-        <v>0.0326388888888889</v>
-      </c>
-      <c r="N23" s="7">
+        <v>0.248611111111111</v>
+      </c>
+      <c r="N7" s="7">
         <f>SUM(Table1[NVG Duration])</f>
-        <v>0.0326388888888889</v>
-      </c>
-      <c r="O23" s="7">
+        <v>0.248611111111111</v>
+      </c>
+      <c r="O7" s="7">
         <f>SUM(Table1[Simulated IFR])</f>
         <v>0</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P7" s="7">
         <f>SUM(Table1[Real IFR])</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q7" s="9">
         <f>SUM(Table1[Takeoffs])</f>
-        <v>9</v>
-      </c>
-      <c r="R23" s="9">
+        <v>18</v>
+      </c>
+      <c r="R7" s="9">
         <f>SUM(Table1[Landings])</f>
-        <v>18</v>
-      </c>
-      <c r="S23" s="9">
+        <v>29</v>
+      </c>
+      <c r="S7" s="9">
         <f>SUM(Table1[Inst. Apps])</f>
         <v>0</v>
       </c>
@@ -14489,7 +13959,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14506,30 +13976,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -15824,7 +15294,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -15841,30 +15311,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -17119,7 +16589,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -17136,30 +16606,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -18457,7 +17927,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -18474,30 +17944,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -19795,7 +19265,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -19812,30 +19282,30 @@
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.01333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.421875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.03125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.0078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.8515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.2734375"/>
-    <col min="23" max="23" width="10.2734375" style="4"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.76" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.54" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4266666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8733333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.78" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3733333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5866666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.0066666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6933333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1733333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.2333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8533333333333" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.95333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.0866666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.78" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.01333333333333" style="1"/>
+    <col min="22" max="22" width="10.22"/>
+    <col min="23" max="23" width="10.22" style="4"/>
+    <col min="24" max="16384" width="9.01333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:23">
@@ -21095,7 +20565,7 @@
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
